--- a/gas_station_data.xlsx
+++ b/gas_station_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,69 +458,460 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shell </t>
+          <t xml:space="preserve">ARCO </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6495 Orchard Lake Rd
-West Bloomfield, MI</t>
+          <t>25800 S Western Ave
+Harbor City, CA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 72</t>
+          <t xml:space="preserve"> 100</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>- - -</t>
+          <t>$4.29</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marathon </t>
+          <t xml:space="preserve">Mobil </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3490 East West Maple Rd
-Commerce Township, MI</t>
+          <t>1150 W Pacific Coast Hwy
+Harbor City, CA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36</t>
+          <t xml:space="preserve"> 128</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$3.49</t>
+          <t>$4.45</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Chevron </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26393 S Vermont Ave
+Harbor City, CA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 67</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$4.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">United Oil </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>909 W Pacific Coast Hwy
+Harbor City, CA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 196</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>- - -</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VP Racing Fuels </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25001 S Western Ave
+Lomita, CA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 144</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$4.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76 </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1401 W Pacific Coast Hwy
+Wilmington, CA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$4.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARCO </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2031 Palos Verdes Dr N
+Lomita, CA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 248</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$4.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t xml:space="preserve">Shell </t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7400 FARMINGTON RD
-West Bloomfield, MI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 40</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>25808 Narbonne Ave
+Lomita, CA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 156</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>- - -</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76 </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1327 W Anaheim St
+Wilmington, CA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 37</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>- - -</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sinclair </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2121 Palos Verdes Dr North
+Lomita, CA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>- - -</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Positiv Energy </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1403 N Wilmington Blvd
+Wilmington, CA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 71</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>- - -</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARCO </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>980 W Pacific Coast Hwy
+Wilmington, CA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 98</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$4.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USA Gasoline </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1025 W Anaheim St
+Wilmington, CA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>- - -</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7-Eleven </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2301 Pacific Coast Hwy
+Lomita, CA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 47</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$4.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chevron </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1020 W Anaheim St
+Wilmington, CA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$4.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chevron </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1741 N Wilmington Blvd
+Wilmington, CA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 79</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$4.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARCO </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>810 W Sepulveda Blvd
+Harbor City, CA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 321</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$4.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chevron </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>575 W Pacific Coast Hwy
+Wilmington, CA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$4.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mobil </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>900 W Sepulveda Blvd
+Harbor City, CA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$4.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chevron </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1250 W Sepulveda Blvd
+Harbor City, CA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 132</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$4.89</t>
         </is>
       </c>
     </row>

--- a/gas_station_data.xlsx
+++ b/gas_station_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,460 +458,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARCO </t>
+          <t xml:space="preserve">Marathon </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25800 S Western Ave
-Harbor City, CA</t>
+          <t>3490 East West Maple Rd
+Commerce Township, MI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100</t>
+          <t xml:space="preserve"> 36</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$4.59</t>
+          <t>$3.09</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mobil </t>
+          <t xml:space="preserve">Shell </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1150 W Pacific Coast Hwy
-Harbor City, CA</t>
+          <t>6495 Orchard Lake Rd
+West Bloomfield, MI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 128</t>
+          <t xml:space="preserve"> 72</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$4.65</t>
+          <t>$3.29</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Oil </t>
+          <t xml:space="preserve">Shell </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>909 W Pacific Coast Hwy
-Harbor City, CA</t>
+          <t>7400 FARMINGTON RD
+West Bloomfield, MI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 196</t>
+          <t xml:space="preserve"> 40</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$4.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chevron </t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>26393 S Vermont Ave
-Harbor City, CA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 67</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$4.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VP Racing Fuels </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>25001 S Western Ave
-Lomita, CA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 144</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$4.19</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">76 </t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1401 W Pacific Coast Hwy
-Wilmington, CA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 86</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$4.65</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ARCO </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2031 Palos Verdes Dr N
-Lomita, CA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 248</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$4.43</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">76 </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1327 W Anaheim St
-Wilmington, CA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 37</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$4.89</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shell </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>25808 Narbonne Ave
-Lomita, CA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 156</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>- - -</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sinclair </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2121 Palos Verdes Dr North
-Lomita, CA</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 90</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>- - -</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Positiv Energy </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1403 N Wilmington Blvd
-Wilmington, CA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 71</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>- - -</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ARCO </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>980 W Pacific Coast Hwy
-Wilmington, CA</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 98</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$4.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7-Eleven </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2301 Pacific Coast Hwy
-Lomita, CA</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 47</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$4.35</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">USA Gasoline </t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1025 W Anaheim St
-Wilmington, CA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 16</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>- - -</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chevron </t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1020 W Anaheim St
-Wilmington, CA</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 33</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$4.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chevron </t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1741 N Wilmington Blvd
-Wilmington, CA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 79</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$4.79</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ARCO </t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>810 W Sepulveda Blvd
-Harbor City, CA</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 321</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$4.09</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mobil </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>900 W Sepulveda Blvd
-Harbor City, CA</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 91</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$4.81</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chevron </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>575 W Pacific Coast Hwy
-Wilmington, CA</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$4.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chevron </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1250 W Sepulveda Blvd
-Harbor City, CA</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 132</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$5.09</t>
+          <t>$3.39</t>
         </is>
       </c>
     </row>
